--- a/Feedback2.xlsx
+++ b/Feedback2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287638\Desktop\CAPSTONE_PROJECT\CAPSTONE_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD52B0A1-5548-4896-8204-0C228C060486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F2286-2622-40D5-A625-FCFD9EF98778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AEF08C7D-BD4A-4081-9006-A02F6CFA0369}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>loved the design!</t>
   </si>
   <si>
@@ -50,13 +47,16 @@
     <t>Didn’t like it much</t>
   </si>
   <si>
-    <t>Feedback ID</t>
-  </si>
-  <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>design_id</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -411,34 +411,34 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -446,13 +446,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -460,13 +460,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/Feedback2.xlsx
+++ b/Feedback2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287638\Desktop\CAPSTONE_PROJECT\CAPSTONE_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F2286-2622-40D5-A625-FCFD9EF98778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E26956-E8B5-4FB4-AC0D-52FB256A278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AEF08C7D-BD4A-4081-9006-A02F6CFA0369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>loved the design!</t>
   </si>
@@ -56,7 +56,22 @@
     <t>comment</t>
   </si>
   <si>
-    <t>rating</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>mycoloumn</t>
+  </si>
+  <si>
+    <t>pagecount</t>
+  </si>
+  <si>
+    <t>kjrviovn</t>
+  </si>
+  <si>
+    <t>jjoko</t>
+  </si>
+  <si>
+    <t>kkl</t>
   </si>
 </sst>
 </file>
@@ -408,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECCD7C9-81C9-4FE0-9212-CAE92AB3C06A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -429,8 +444,14 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -443,8 +464,14 @@
       <c r="D2">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -457,8 +484,14 @@
       <c r="D3">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -470,6 +503,12 @@
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>6969</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback2.xlsx
+++ b/Feedback2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287638\Desktop\CAPSTONE_PROJECT\CAPSTONE_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E26956-E8B5-4FB4-AC0D-52FB256A278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1DBA09-632C-4164-9817-3BEB972E333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AEF08C7D-BD4A-4081-9006-A02F6CFA0369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>loved the design!</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>kkl</t>
+  </si>
+  <si>
+    <t>user experience</t>
+  </si>
+  <si>
+    <t>kkoll</t>
+  </si>
+  <si>
+    <t>kkeo</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>unlike</t>
+  </si>
+  <si>
+    <t>okok</t>
   </si>
 </sst>
 </file>
@@ -423,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECCD7C9-81C9-4FE0-9212-CAE92AB3C06A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -450,8 +471,14 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -470,8 +497,14 @@
       <c r="F2">
         <v>99</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -490,8 +523,14 @@
       <c r="F3">
         <v>107</v>
       </c>
+      <c r="G3">
+        <v>8977</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -509,6 +548,12 @@
       </c>
       <c r="F4">
         <v>6969</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
